--- a/AH - GeneriekeObjectData.xlsx
+++ b/AH - GeneriekeObjectData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bureaubased-my.sharepoint.com/personal/arjen_based_co_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0900A168-0042-455A-95AF-741900AB3FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{0900A168-0042-455A-95AF-741900AB3FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D762D5F-0C9E-47ED-BF3B-D884D3C8733B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E13E905-26DC-4587-AC06-E73DCC0C739C}"/>
   </bookViews>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Naam</t>
-  </si>
-  <si>
-    <t>Aanwezig</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Standalone</t>
   </si>
@@ -53,49 +47,40 @@
     <t>Brandmeldinstallatie</t>
   </si>
   <si>
-    <t>UUID</t>
-  </si>
-  <si>
-    <t>ffa5971f-e35e-4b5d-a6c2-64c93f55a37c</t>
-  </si>
-  <si>
-    <t>8c9f2dbf-2b0a-4c54-af8b-7c444c3887c1</t>
-  </si>
-  <si>
-    <t>7d4d8f20-c361-4f35-8d7d-cb329da08069</t>
-  </si>
-  <si>
     <t>Rolluik entree</t>
   </si>
   <si>
-    <t>51b7bf33-86c7-4154-99f9-af10d93e12c1</t>
-  </si>
-  <si>
     <t>Rolluik fireshield</t>
   </si>
   <si>
-    <t>dc89402d-c691-49cf-b2f8-d3b7993bcf40</t>
-  </si>
-  <si>
     <t>Schuifdeur entree</t>
   </si>
   <si>
-    <t>c1f07575-869a-455e-81ac-222ab41d203b</t>
-  </si>
-  <si>
     <t>Inbraakbeveiliging</t>
   </si>
   <si>
-    <t>9537fdc5-9fdd-4e4a-aebf-79fbea3bbb96</t>
-  </si>
-  <si>
     <t>Video bewakingssyteem</t>
   </si>
   <si>
-    <t>5ae65334-ceb5-4a7b-b29a-63a28af1b872</t>
-  </si>
-  <si>
     <t>Telefooninstallatie</t>
+  </si>
+  <si>
+    <t>Onderdeel</t>
+  </si>
+  <si>
+    <t>Classificatiecode</t>
+  </si>
+  <si>
+    <t>Eigenschappen</t>
+  </si>
+  <si>
+    <t>Waarde</t>
+  </si>
+  <si>
+    <t>True/false</t>
+  </si>
+  <si>
+    <t>Aanwezig in Project</t>
   </si>
 </sst>
 </file>
@@ -467,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780B81AA-5DFC-428A-88A2-39356CE3CE5C}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,84 +463,98 @@
     <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/AH - GeneriekeObjectData.xlsx
+++ b/AH - GeneriekeObjectData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bureaubased-my.sharepoint.com/personal/arjen_based_co_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{0900A168-0042-455A-95AF-741900AB3FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D762D5F-0C9E-47ED-BF3B-D884D3C8733B}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{0900A168-0042-455A-95AF-741900AB3FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E34099DE-DEAD-4EF9-95D1-D7B76D334F81}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E13E905-26DC-4587-AC06-E73DCC0C739C}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11055" xr2:uid="{8E13E905-26DC-4587-AC06-E73DCC0C739C}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -77,10 +77,10 @@
     <t>Waarde</t>
   </si>
   <si>
-    <t>True/false</t>
-  </si>
-  <si>
     <t>Aanwezig in Project</t>
+  </si>
+  <si>
+    <t>Boolean</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,10 +489,10 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">

--- a/AH - GeneriekeObjectData.xlsx
+++ b/AH - GeneriekeObjectData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bureaubased-my.sharepoint.com/personal/arjen_based_co_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{0900A168-0042-455A-95AF-741900AB3FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E34099DE-DEAD-4EF9-95D1-D7B76D334F81}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{0900A168-0042-455A-95AF-741900AB3FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1920E566-A4DC-414F-84C2-61F2D6C81655}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11055" xr2:uid="{8E13E905-26DC-4587-AC06-E73DCC0C739C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Standalone</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Boolean</t>
+  </si>
+  <si>
+    <t>Standalone, WC, test</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">

--- a/AH - GeneriekeObjectData.xlsx
+++ b/AH - GeneriekeObjectData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bureaubased-my.sharepoint.com/personal/arjen_based_co_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{0900A168-0042-455A-95AF-741900AB3FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1920E566-A4DC-414F-84C2-61F2D6C81655}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{0900A168-0042-455A-95AF-741900AB3FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D517DF1-C17E-4B94-BC02-F15C712A4391}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11055" xr2:uid="{8E13E905-26DC-4587-AC06-E73DCC0C739C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{8E13E905-26DC-4587-AC06-E73DCC0C739C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Objecten" sheetId="1" r:id="rId1"/>
+    <sheet name="Parameters" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Standalone</t>
   </si>
@@ -68,15 +69,9 @@
     <t>Onderdeel</t>
   </si>
   <si>
-    <t>Classificatiecode</t>
-  </si>
-  <si>
     <t>Eigenschappen</t>
   </si>
   <si>
-    <t>Waarde</t>
-  </si>
-  <si>
     <t>Aanwezig in Project</t>
   </si>
   <si>
@@ -84,6 +79,15 @@
   </si>
   <si>
     <t>Standalone, WC, test</t>
+  </si>
+  <si>
+    <t>Dropdown</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Options</t>
   </si>
 </sst>
 </file>
@@ -455,109 +459,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780B81AA-5DFC-428A-88A2-39356CE3CE5C}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="24.578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41F2923-4A18-4DFB-B052-394E62CB1C22}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.15625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/AH - GeneriekeObjectData.xlsx
+++ b/AH - GeneriekeObjectData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bureaubased-my.sharepoint.com/personal/arjen_based_co_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{0900A168-0042-455A-95AF-741900AB3FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D517DF1-C17E-4B94-BC02-F15C712A4391}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{0900A168-0042-455A-95AF-741900AB3FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1063678C-F8D8-44A0-A699-28378DF5107F}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{8E13E905-26DC-4587-AC06-E73DCC0C739C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{8E13E905-26DC-4587-AC06-E73DCC0C739C}"/>
   </bookViews>
   <sheets>
     <sheet name="Objecten" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Standalone</t>
   </si>
@@ -88,6 +88,33 @@
   </si>
   <si>
     <t>Options</t>
+  </si>
+  <si>
+    <t>ClassificatieCode</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>IB</t>
+  </si>
+  <si>
+    <t>VB</t>
+  </si>
+  <si>
+    <t>TI</t>
   </si>
 </sst>
 </file>
@@ -459,60 +486,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780B81AA-5DFC-428A-88A2-39356CE3CE5C}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="24.578125" customWidth="1"/>
+    <col min="2" max="2" width="17.62890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -524,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41F2923-4A18-4DFB-B052-394E62CB1C22}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/AH - GeneriekeObjectData.xlsx
+++ b/AH - GeneriekeObjectData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bureaubased-my.sharepoint.com/personal/arjen_based_co_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{0900A168-0042-455A-95AF-741900AB3FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1063678C-F8D8-44A0-A699-28378DF5107F}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{0900A168-0042-455A-95AF-741900AB3FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A500181F-F67C-4AC1-8613-CC5D0A98B0CD}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{8E13E905-26DC-4587-AC06-E73DCC0C739C}"/>
+    <workbookView xWindow="-28920" yWindow="90" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8E13E905-26DC-4587-AC06-E73DCC0C739C}"/>
   </bookViews>
   <sheets>
     <sheet name="Objecten" sheetId="1" r:id="rId1"/>
@@ -37,35 +37,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Standalone</t>
   </si>
   <si>
-    <t>Sprinklerinstallatie</t>
-  </si>
-  <si>
     <t>Brandmeldinstallatie</t>
   </si>
   <si>
-    <t>Rolluik entree</t>
-  </si>
-  <si>
-    <t>Rolluik fireshield</t>
-  </si>
-  <si>
     <t>Schuifdeur entree</t>
   </si>
   <si>
-    <t>Inbraakbeveiliging</t>
-  </si>
-  <si>
-    <t>Video bewakingssyteem</t>
-  </si>
-  <si>
-    <t>Telefooninstallatie</t>
-  </si>
-  <si>
     <t>Onderdeel</t>
   </si>
   <si>
@@ -78,9 +60,6 @@
     <t>Boolean</t>
   </si>
   <si>
-    <t>Standalone, WC, test</t>
-  </si>
-  <si>
     <t>Dropdown</t>
   </si>
   <si>
@@ -96,25 +75,94 @@
     <t>BM</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>RE</t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
-  <si>
     <t>SE</t>
   </si>
   <si>
-    <t>IB</t>
-  </si>
-  <si>
-    <t>VB</t>
-  </si>
-  <si>
-    <t>TI</t>
+    <t>CO installatie parkeergarage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draaideur entree/tourniquet </t>
+  </si>
+  <si>
+    <t>Magazijn- Overheaddeuren</t>
+  </si>
+  <si>
+    <t>Parkeersysteem</t>
+  </si>
+  <si>
+    <t>Vetput</t>
+  </si>
+  <si>
+    <t>Rolluik</t>
+  </si>
+  <si>
+    <t>Goederen lift</t>
+  </si>
+  <si>
+    <t>Heftafel</t>
+  </si>
+  <si>
+    <t>Persoonslift</t>
+  </si>
+  <si>
+    <t>Rolpad</t>
+  </si>
+  <si>
+    <t>Roltrap</t>
+  </si>
+  <si>
+    <t>Fire shield (brandwerend rolluik)</t>
+  </si>
+  <si>
+    <t>Ontruimingsinstallatie</t>
+  </si>
+  <si>
+    <t>Brandmeld- en sprinklerinstallatie</t>
+  </si>
+  <si>
+    <t>CO-INS</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>OI</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>Ja, Nee</t>
   </si>
 </sst>
 </file>
@@ -486,88 +534,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780B81AA-5DFC-428A-88A2-39356CE3CE5C}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.578125" customWidth="1"/>
-    <col min="2" max="2" width="17.62890625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -579,44 +691,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41F2923-4A18-4DFB-B052-394E62CB1C22}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.15625" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
